--- a/ComputedResults/Area/SixBorderVowels/Norwagian/MFCC/Father/6_bordervowels_mfcc_no_ADS_F.xlsx
+++ b/ComputedResults/Area/SixBorderVowels/Norwagian/MFCC/Father/6_bordervowels_mfcc_no_ADS_F.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1276716.878618114</v>
+        <v>1276717</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8355220.038401638</v>
+        <v>8355220</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5942710.284082498</v>
+        <v>5942710</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5235703.285543962</v>
+        <v>5235703</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7086115.040269738</v>
+        <v>7086115</v>
       </c>
     </row>
     <row r="7">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10008984.76071202</v>
+        <v>10008985</v>
       </c>
     </row>
     <row r="8">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2065078.464261167</v>
+        <v>2065078</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2800821.955919987</v>
+        <v>2800822</v>
       </c>
     </row>
     <row r="10">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4650976.471042761</v>
+        <v>4650976</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7764648.014309371</v>
+        <v>7764648</v>
       </c>
     </row>
     <row r="12">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4268789.494775371</v>
+        <v>4268789</v>
       </c>
     </row>
     <row r="13">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4710978.21491013</v>
+        <v>4710978</v>
       </c>
     </row>
     <row r="14">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3077018.620647192</v>
+        <v>3077019</v>
       </c>
     </row>
     <row r="15">
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2961057.131225699</v>
+        <v>2961057</v>
       </c>
     </row>
     <row r="16">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4240382.866533085</v>
+        <v>4240383</v>
       </c>
     </row>
     <row r="17">
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5494784.509189069</v>
+        <v>5494785</v>
       </c>
     </row>
     <row r="18">
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2976074.584403437</v>
+        <v>2976075</v>
       </c>
     </row>
     <row r="19">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2249693.324012805</v>
+        <v>2249693</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6436640.626952955</v>
+        <v>6436641</v>
       </c>
     </row>
     <row r="21">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7154651.750645336</v>
+        <v>7154652</v>
       </c>
     </row>
     <row r="22">
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7338803.585137928</v>
+        <v>7338804</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7042602.468897389</v>
+        <v>7042602</v>
       </c>
     </row>
     <row r="24">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10191491.55764355</v>
+        <v>10191492</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6143153.487061825</v>
+        <v>6143153</v>
       </c>
     </row>
     <row r="26">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3002052.030405184</v>
+        <v>3002052</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3760389.862791531</v>
+        <v>3760390</v>
       </c>
     </row>
     <row r="28">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1648112.359948374</v>
+        <v>1648112</v>
       </c>
     </row>
     <row r="29">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9546970.412518431</v>
+        <v>9546970</v>
       </c>
     </row>
     <row r="30">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9380455.992873043</v>
+        <v>9380456</v>
       </c>
     </row>
     <row r="31">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11803327.94900429</v>
+        <v>11803328</v>
       </c>
     </row>
     <row r="32">
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2873310.914682295</v>
+        <v>2873311</v>
       </c>
     </row>
     <row r="33">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1776087.195157749</v>
+        <v>1776087</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2531926.793623555</v>
+        <v>2531927</v>
       </c>
     </row>
     <row r="35">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5820633.290966108</v>
+        <v>5820633</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7302159.196103554</v>
+        <v>7302159</v>
       </c>
     </row>
     <row r="37">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7461021.300057898</v>
+        <v>7461021</v>
       </c>
     </row>
     <row r="38">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1178708.651391007</v>
+        <v>1178709</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4327306.621331342</v>
+        <v>4327307</v>
       </c>
     </row>
     <row r="40">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2228768.311889597</v>
+        <v>2228768</v>
       </c>
     </row>
     <row r="41">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2339140.041012545</v>
+        <v>2339140</v>
       </c>
     </row>
     <row r="42">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3072047.521621398</v>
+        <v>3072048</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4413159.988661809</v>
+        <v>4413160</v>
       </c>
     </row>
     <row r="44">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5251924.780416545</v>
+        <v>5251925</v>
       </c>
     </row>
     <row r="45">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5101035.817382076</v>
+        <v>5101036</v>
       </c>
     </row>
     <row r="46">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6667907.506183056</v>
+        <v>6667908</v>
       </c>
     </row>
     <row r="47">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6519163.717448258</v>
+        <v>6519164</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5713990.597810014</v>
+        <v>5713991</v>
       </c>
     </row>
     <row r="49">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3016445.26024927</v>
+        <v>3016445</v>
       </c>
     </row>
     <row r="50">
@@ -1334,7 +1334,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3659201.018213503</v>
+        <v>3659201</v>
       </c>
     </row>
     <row r="51">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6695434.296168618</v>
+        <v>6695434</v>
       </c>
     </row>
     <row r="52">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>5584482.145764159</v>
+        <v>5584482</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>5695391.633695367</v>
+        <v>5695392</v>
       </c>
     </row>
     <row r="54">
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3369160.573380714</v>
+        <v>3369161</v>
       </c>
     </row>
     <row r="55">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3660459.450861502</v>
+        <v>3660459</v>
       </c>
     </row>
     <row r="56">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>7067075.860193957</v>
+        <v>7067076</v>
       </c>
     </row>
     <row r="57">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5236505.061904851</v>
+        <v>5236505</v>
       </c>
     </row>
     <row r="58">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7793663.762217207</v>
+        <v>7793664</v>
       </c>
     </row>
     <row r="59">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>7441408.521439698</v>
+        <v>7441409</v>
       </c>
     </row>
     <row r="60">
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1705794.168595597</v>
+        <v>1705794</v>
       </c>
     </row>
     <row r="61">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5501586.198613862</v>
+        <v>5501586</v>
       </c>
     </row>
     <row r="62">
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3527226.293769613</v>
+        <v>3527226</v>
       </c>
     </row>
     <row r="63">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5018078.853451493</v>
+        <v>5018079</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5029261.422935443</v>
+        <v>5029261</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2320974.552501408</v>
+        <v>2320975</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3933703.308929845</v>
+        <v>3933703</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4753283.307262512</v>
+        <v>4753283</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4120783.360128095</v>
+        <v>4120783</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6492754.851970444</v>
+        <v>6492755</v>
       </c>
     </row>
     <row r="70">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>5685908.95032983</v>
+        <v>5685909</v>
       </c>
     </row>
     <row r="71">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4183142.95799397</v>
+        <v>4183143</v>
       </c>
     </row>
     <row r="72">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1424615.113190864</v>
+        <v>1424615</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>759251.647162165</v>
+        <v>759252</v>
       </c>
     </row>
     <row r="74">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>593939.0879164301</v>
+        <v>593939</v>
       </c>
     </row>
     <row r="75">
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3635943.789593047</v>
+        <v>3635944</v>
       </c>
     </row>
     <row r="76">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3177270.452186649</v>
+        <v>3177270</v>
       </c>
     </row>
     <row r="77">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2912990.453009323</v>
+        <v>2912990</v>
       </c>
     </row>
     <row r="78">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4096100.281429217</v>
+        <v>4096100</v>
       </c>
     </row>
     <row r="79">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4422652.772242179</v>
+        <v>4422653</v>
       </c>
     </row>
     <row r="80">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3315098.921594344</v>
+        <v>3315099</v>
       </c>
     </row>
     <row r="81">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1550790.194712643</v>
+        <v>1550790</v>
       </c>
     </row>
     <row r="82">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3596060.696937042</v>
+        <v>3596061</v>
       </c>
     </row>
     <row r="83">
@@ -1928,7 +1928,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4909450.124982571</v>
+        <v>4909450</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6942599.692201421</v>
+        <v>6942600</v>
       </c>
     </row>
     <row r="85">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3555242.506571939</v>
+        <v>3555243</v>
       </c>
     </row>
     <row r="86">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5255356.216363936</v>
+        <v>5255356</v>
       </c>
     </row>
     <row r="87">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>5735939.870662971</v>
+        <v>5735940</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2018,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3346246.009551203</v>
+        <v>3346246</v>
       </c>
     </row>
     <row r="89">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2308987.461552762</v>
+        <v>2308987</v>
       </c>
     </row>
     <row r="90">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>7330484.190103246</v>
+        <v>7330484</v>
       </c>
     </row>
     <row r="91">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>5948653.104244194</v>
+        <v>5948653</v>
       </c>
     </row>
     <row r="92">
@@ -2090,7 +2090,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3495452.058692264</v>
+        <v>3495452</v>
       </c>
     </row>
     <row r="93">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>7677562.038966767</v>
+        <v>7677562</v>
       </c>
     </row>
     <row r="94">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2750018.953032165</v>
+        <v>2750019</v>
       </c>
     </row>
     <row r="95">
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>3157821.712454826</v>
+        <v>3157822</v>
       </c>
     </row>
     <row r="96">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3689303.092493734</v>
+        <v>3689303</v>
       </c>
     </row>
     <row r="97">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1783469.862680817</v>
+        <v>1783470</v>
       </c>
     </row>
     <row r="98">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4343405.710702701</v>
+        <v>4343406</v>
       </c>
     </row>
     <row r="99">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>5589500.352676933</v>
+        <v>5589500</v>
       </c>
     </row>
     <row r="100">
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>5659202.771353089</v>
+        <v>5659203</v>
       </c>
     </row>
     <row r="101">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>9711172.12002633</v>
+        <v>9711172</v>
       </c>
     </row>
     <row r="102">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>7631522.90757357</v>
+        <v>7631523</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4272112.609684793</v>
+        <v>4272113</v>
       </c>
     </row>
     <row r="104">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2605920.962804782</v>
+        <v>2605921</v>
       </c>
     </row>
     <row r="105">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>8505979.896338386</v>
+        <v>8505980</v>
       </c>
     </row>
     <row r="106">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>8135159.505526436</v>
+        <v>8135160</v>
       </c>
     </row>
     <row r="107">
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>3074436.570207948</v>
+        <v>3074437</v>
       </c>
     </row>
     <row r="108">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>4740529.423616673</v>
+        <v>4740529</v>
       </c>
     </row>
     <row r="109">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>5466547.329777388</v>
+        <v>5466547</v>
       </c>
     </row>
     <row r="110">
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2273772.350201854</v>
+        <v>2273772</v>
       </c>
     </row>
     <row r="111">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3340147.226331728</v>
+        <v>3340147</v>
       </c>
     </row>
     <row r="112">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>3862938.686174892</v>
+        <v>3862939</v>
       </c>
     </row>
     <row r="113">
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>2115681.036173842</v>
+        <v>2115681</v>
       </c>
     </row>
     <row r="114">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>2855428.694085947</v>
+        <v>2855429</v>
       </c>
     </row>
     <row r="115">
@@ -2504,7 +2504,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3496718.99900241</v>
+        <v>3496719</v>
       </c>
     </row>
     <row r="116">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>758548.9228496714</v>
+        <v>758549</v>
       </c>
     </row>
     <row r="117">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>717669.4681044994</v>
+        <v>717669</v>
       </c>
     </row>
   </sheetData>
